--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T16:26:01+00:00</t>
+    <t>2021-11-11T22:15:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization (WHO)</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -263,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,64 +369,72 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -438,27 +452,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
+++ b/refs/heads/main/CodeSystem-DDCC-Example-Test-CodeSystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
